--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Tgfbr3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H2">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.3859284200861</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N2">
-        <v>32.3859284200861</v>
+        <v>97.698419</v>
       </c>
       <c r="O2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q2">
-        <v>77.50707771787546</v>
+        <v>79.50627863788711</v>
       </c>
       <c r="R2">
-        <v>77.50707771787546</v>
+        <v>715.556507740984</v>
       </c>
       <c r="S2">
-        <v>0.04924809580662366</v>
+        <v>0.04707960264998216</v>
       </c>
       <c r="T2">
-        <v>0.04924809580662366</v>
+        <v>0.04707960264998214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H3">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5667109899196</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N3">
-        <v>40.5667109899196</v>
+        <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q3">
-        <v>97.08559781488987</v>
+        <v>99.74324156440888</v>
       </c>
       <c r="R3">
-        <v>97.08559781488987</v>
+        <v>897.6891740796799</v>
       </c>
       <c r="S3">
-        <v>0.06168831238915774</v>
+        <v>0.05906291000313317</v>
       </c>
       <c r="T3">
-        <v>0.06168831238915774</v>
+        <v>0.05906291000313314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H4">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0395147597941582</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N4">
-        <v>0.0395147597941582</v>
+        <v>0.113378</v>
       </c>
       <c r="O4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q4">
-        <v>0.09456803333356029</v>
+        <v>0.09226621015644443</v>
       </c>
       <c r="R4">
-        <v>0.09456803333356029</v>
+        <v>0.8303958914079999</v>
       </c>
       <c r="S4">
-        <v>6.008864871421989E-05</v>
+        <v>5.463538963972055E-05</v>
       </c>
       <c r="T4">
-        <v>6.008864871421989E-05</v>
+        <v>5.463538963972053E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H5">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.67374755881848</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N5">
-        <v>3.67374755881848</v>
+        <v>0.217205</v>
       </c>
       <c r="O5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q5">
-        <v>8.792134468518107</v>
+        <v>0.1767598844311111</v>
       </c>
       <c r="R5">
-        <v>8.792134468518107</v>
+        <v>1.59083895988</v>
       </c>
       <c r="S5">
-        <v>0.005586533428939175</v>
+        <v>0.0001046682760914419</v>
       </c>
       <c r="T5">
-        <v>0.005586533428939175</v>
+        <v>0.0001046682760914419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.7068739265939</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H6">
-        <v>12.7068739265939</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I6">
-        <v>0.6189977200007815</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J6">
-        <v>0.6189977200007815</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.3859284200861</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N6">
-        <v>32.3859284200861</v>
+        <v>11.81146</v>
       </c>
       <c r="O6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q6">
-        <v>411.5239094297285</v>
+        <v>9.612082155395555</v>
       </c>
       <c r="R6">
-        <v>411.5239094297285</v>
+        <v>86.50873939856</v>
       </c>
       <c r="S6">
-        <v>0.2614828156995198</v>
+        <v>0.005691789582758328</v>
       </c>
       <c r="T6">
-        <v>0.2614828156995198</v>
+        <v>0.005691789582758326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H7">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5667109899196</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N7">
-        <v>40.5667109899196</v>
+        <v>97.698419</v>
       </c>
       <c r="O7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q7">
-        <v>515.4760821654796</v>
+        <v>419.6400677724204</v>
       </c>
       <c r="R7">
-        <v>515.4760821654796</v>
+        <v>3776.760609951784</v>
       </c>
       <c r="S7">
-        <v>0.3275341585308373</v>
+        <v>0.2484896537129909</v>
       </c>
       <c r="T7">
-        <v>0.3275341585308373</v>
+        <v>0.2484896537129909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H8">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0395147597941582</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N8">
-        <v>0.0395147597941582</v>
+        <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q8">
-        <v>0.5021090709440098</v>
+        <v>526.4522672550755</v>
       </c>
       <c r="R8">
-        <v>0.5021090709440098</v>
+        <v>4738.07040529568</v>
       </c>
       <c r="S8">
-        <v>0.0003190407425917233</v>
+        <v>0.3117384435691636</v>
       </c>
       <c r="T8">
-        <v>0.0003190407425917233</v>
+        <v>0.3117384435691635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H9">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.67374755881848</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N9">
-        <v>3.67374755881848</v>
+        <v>0.113378</v>
       </c>
       <c r="O9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q9">
-        <v>46.68184706803854</v>
+        <v>0.4869879378897777</v>
       </c>
       <c r="R9">
-        <v>46.68184706803854</v>
+        <v>4.382891441008</v>
       </c>
       <c r="S9">
-        <v>0.02966170502783257</v>
+        <v>0.0002883696609120306</v>
       </c>
       <c r="T9">
-        <v>0.02966170502783257</v>
+        <v>0.0002883696609120305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.42803626162927</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H10">
-        <v>5.42803626162927</v>
+        <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.2644192497257838</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J10">
-        <v>0.2644192497257838</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.3859284200861</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N10">
-        <v>32.3859284200861</v>
+        <v>0.217205</v>
       </c>
       <c r="O10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q10">
-        <v>175.7919938307573</v>
+        <v>0.9329518517644443</v>
       </c>
       <c r="R10">
-        <v>175.7919938307573</v>
+        <v>8.39656666588</v>
       </c>
       <c r="S10">
-        <v>0.1116984565684105</v>
+        <v>0.0005524469667695461</v>
       </c>
       <c r="T10">
-        <v>0.1116984565684105</v>
+        <v>0.000552446966769546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.42803626162927</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H11">
-        <v>5.42803626162927</v>
+        <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.2644192497257838</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J11">
-        <v>0.2644192497257838</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.5667109899196</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N11">
-        <v>40.5667109899196</v>
+        <v>11.81146</v>
       </c>
       <c r="O11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q11">
-        <v>220.1975782683182</v>
+        <v>50.73328643006222</v>
       </c>
       <c r="R11">
-        <v>220.1975782683182</v>
+        <v>456.59957787056</v>
       </c>
       <c r="S11">
-        <v>0.1399138214243836</v>
+        <v>0.0300416898787773</v>
       </c>
       <c r="T11">
-        <v>0.1399138214243836</v>
+        <v>0.03004168987877729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H12">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0395147597941582</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N12">
-        <v>0.0395147597941582</v>
+        <v>97.698419</v>
       </c>
       <c r="O12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q12">
-        <v>0.2144875490322611</v>
+        <v>210.7716707641697</v>
       </c>
       <c r="R12">
-        <v>0.2144875490322611</v>
+        <v>1896.945036877527</v>
       </c>
       <c r="S12">
-        <v>0.0001362856615820069</v>
+        <v>0.1248083381520682</v>
       </c>
       <c r="T12">
-        <v>0.0001362856615820069</v>
+        <v>0.1248083381520682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.472111000000001</v>
+      </c>
+      <c r="H13">
+        <v>19.416333</v>
+      </c>
+      <c r="I13">
+        <v>0.2968957903097819</v>
+      </c>
+      <c r="J13">
+        <v>0.2968957903097818</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N13">
+        <v>122.56588</v>
+      </c>
+      <c r="O13">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P13">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q13">
+        <v>264.4199933908934</v>
+      </c>
+      <c r="R13">
+        <v>2379.77994051804</v>
+      </c>
+      <c r="S13">
+        <v>0.1565761652391306</v>
+      </c>
+      <c r="T13">
+        <v>0.1565761652391305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.42803626162927</v>
-      </c>
-      <c r="H13">
-        <v>5.42803626162927</v>
-      </c>
-      <c r="I13">
-        <v>0.2644192497257838</v>
-      </c>
-      <c r="J13">
-        <v>0.2644192497257838</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.67374755881848</v>
-      </c>
-      <c r="N13">
-        <v>3.67374755881848</v>
-      </c>
-      <c r="O13">
-        <v>0.04791892452817939</v>
-      </c>
-      <c r="P13">
-        <v>0.04791892452817939</v>
-      </c>
-      <c r="Q13">
-        <v>19.94123496533872</v>
-      </c>
-      <c r="R13">
-        <v>19.94123496533872</v>
-      </c>
-      <c r="S13">
-        <v>0.01267068607140765</v>
-      </c>
-      <c r="T13">
-        <v>0.01267068607140765</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.472111000000001</v>
+      </c>
+      <c r="H14">
+        <v>19.416333</v>
+      </c>
+      <c r="I14">
+        <v>0.2968957903097819</v>
+      </c>
+      <c r="J14">
+        <v>0.2968957903097818</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.113378</v>
+      </c>
+      <c r="O14">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P14">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q14">
+        <v>0.2445983336526667</v>
+      </c>
+      <c r="R14">
+        <v>2.201385002874</v>
+      </c>
+      <c r="S14">
+        <v>0.0001448387794587053</v>
+      </c>
+      <c r="T14">
+        <v>0.0001448387794587053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.472111000000001</v>
+      </c>
+      <c r="H15">
+        <v>19.416333</v>
+      </c>
+      <c r="I15">
+        <v>0.2968957903097819</v>
+      </c>
+      <c r="J15">
+        <v>0.2968957903097818</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.217205</v>
+      </c>
+      <c r="O15">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P15">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q15">
+        <v>0.4685916232516666</v>
+      </c>
+      <c r="R15">
+        <v>4.217324609265</v>
+      </c>
+      <c r="S15">
+        <v>0.0002774762925111406</v>
+      </c>
+      <c r="T15">
+        <v>0.0002774762925111404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.472111000000001</v>
+      </c>
+      <c r="H16">
+        <v>19.416333</v>
+      </c>
+      <c r="I16">
+        <v>0.2968957903097819</v>
+      </c>
+      <c r="J16">
+        <v>0.2968957903097818</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.81146</v>
+      </c>
+      <c r="O16">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P16">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q16">
+        <v>25.48169339735334</v>
+      </c>
+      <c r="R16">
+        <v>229.33524057618</v>
+      </c>
+      <c r="S16">
+        <v>0.01508897184661328</v>
+      </c>
+      <c r="T16">
+        <v>0.01508897184661327</v>
       </c>
     </row>
   </sheetData>
